--- a/medicine/Psychotrope/Jean-Gilles_Jutras/Jean-Gilles_Jutras.xlsx
+++ b/medicine/Psychotrope/Jean-Gilles_Jutras/Jean-Gilles_Jutras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Gilles Jutras (Trois-Rivières, 1927 - Québec, 10 août 2013[1]) est un administrateur et un chroniqueur québécois, surtout connu comme « l'un des premiers chroniqueurs en vin au Québec[2] ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Gilles Jutras (Trois-Rivières, 1927 - Québec, 10 août 2013) est un administrateur et un chroniqueur québécois, surtout connu comme « l'un des premiers chroniqueurs en vin au Québec ».
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1959 à 1979, il est directeur général de la Fédération des commissions scolaires catholiques du Québec[2].
-Il tient une chronique vinicole hebdomadaire dans le journal Le Soleil, de 1985 à 1996[2]. Il est membre, puis « Gouverneur », de l’Amicale des sommeliers du Québec (ASQ)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1959 à 1979, il est directeur général de la Fédération des commissions scolaires catholiques du Québec.
+Il tient une chronique vinicole hebdomadaire dans le journal Le Soleil, de 1985 à 1996. Il est membre, puis « Gouverneur », de l’Amicale des sommeliers du Québec (ASQ).
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1993 : nommé Ambassadeur du vin, par la Société des alcools du Québec[2],[4]
-« Gouverneur » de l’Amicale des sommeliers du Québec[3]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1993 : nommé Ambassadeur du vin, par la Société des alcools du Québec,
+« Gouverneur » de l’Amicale des sommeliers du Québec</t>
         </is>
       </c>
     </row>
@@ -574,11 +590,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Quarante ans au service des commissions scolaires, la Fédération des commissions scolaires du Québec, 1987, 34 p., 22 x 28 cm  (ISBN 2-9208-9503-6 et 978-2-9208-9503-4)
-Bacchus m’a raconté…, Contes, souvenirs, légendes sur le vin[5], Éditions Anne Sigier, 1998, 211 p.; 18 x 29 cm  (ISBN 2-8912-9307-X et 978-2-8912-9307-5)
-dont : Le grand cru et le reginglard : fable bachique (parue dans Le Soleil[2])</t>
+Bacchus m’a raconté…, Contes, souvenirs, légendes sur le vin, Éditions Anne Sigier, 1998, 211 p.; 18 x 29 cm  (ISBN 2-8912-9307-X et 978-2-8912-9307-5)
+dont : Le grand cru et le reginglard : fable bachique (parue dans Le Soleil)</t>
         </is>
       </c>
     </row>
